--- a/cases/cases/test_api.xlsx
+++ b/cases/cases/test_api.xlsx
@@ -2108,7 +2108,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
@@ -2337,21 +2337,9 @@
       <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
       <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="U3" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="0" t="inlineStr"/>
       <c r="V3" s="0" t="inlineStr"/>
       <c r="W3" s="12" t="inlineStr"/>
     </row>
@@ -2580,7 +2568,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
     <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
@@ -2912,7 +2900,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
     <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>

--- a/cases/cases/test_api.xlsx
+++ b/cases/cases/test_api.xlsx
@@ -1,200 +1,568 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="26148" windowHeight="14628"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="safe" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Query Str</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>非BIP用户登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+  </si>
+  <si>
+    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+  </si>
+  <si>
+    <t>{"code":"0","type":"success","data":{"id":"216892516055272770","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"86fc96bed28d2d22c574a13388a40797","type":"user","avatar":null,"ncAccount":null,"timestamp":1689251605,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/api/addTvSequence?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def setup(pm):
+ print("pm----------------&gt;", pm.get_variables())
+ # request_data = pm.get_variables()  # 获取得到请求数据
+ """
+ request_data 的值:  {'Url': '/login',
+  'Headers': '{"Content-Type": "application/json"}',
+   'Query Str': None,
+    'Request Data Type': 'params',
+    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+    }
+ """
+ BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
+ pm.update_environments("BSP_TOKEN_NEWS", BSP_TOKEN + "修改了环境变量")  # 设置环境变量
+ print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+ print("----&gt;pm.get_variables", pm.get_variables())
+setup(pm)
+</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>('PASS', [])</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/api/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"check":"data.projectId","comparator":"contained_by","expect":"{{projectId}}"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>initialize_data</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://xxxx.com</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql_base",
+ "user":"root",
+ "password":"root1234"
+}</t>
+  </si>
+  <si>
+    <t>["safe"]</t>
+  </si>
+  <si>
+    <t>{
+"{{account}}":"18120",
+"{{passwd}}":"B+irs=",
+"{{projectId}}":"3333",
+"{{tenant}}":"54444"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果是提取出来的参数，那么使用 {{}} 包裹变量即可</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果是使用内置函数或者自定义函数，则使用：{{函数名()}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数中的 hello 的值可以这么写:
+在提取参数这栏填写：{"hel":"$.hello"}
+那么使用的时候就这样填写：{{hel}}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath：{"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储标量：["co","na"]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,200 +907,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,14 +1307,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -958,7 +1327,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -967,8 +1335,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -980,7 +1348,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -989,8 +1356,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1010,7 +1377,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1021,8 +1387,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1034,7 +1400,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1053,19 +1418,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1081,7 +1446,6 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
-        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1090,8 +1454,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1103,7 +1467,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1115,7 +1478,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1129,7 +1492,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1144,7 +1506,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1160,7 +1522,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1171,7 +1532,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1187,7 +1548,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1198,7 +1558,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1214,7 +1574,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1222,8 +1581,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1242,7 +1601,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1267,7 +1625,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1292,7 +1649,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1324,7 +1680,6 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1370,8 +1725,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1391,7 +1746,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1402,8 +1756,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1423,7 +1777,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1434,8 +1787,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1455,7 +1808,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1536,7 +1888,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1548,8 +1900,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1569,7 +1921,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1580,8 +1931,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1601,7 +1952,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1612,11 +1962,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1630,7 +1980,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1762,79 +2111,16 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z6" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z6">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2132,738 +2418,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="5" max="6"/>
-    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
-    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="9" max="26"/>
-    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.21969696969697" style="3" customWidth="1"/>
+    <col min="5" max="6" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.780303030303" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
+    <col min="9" max="26" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headers Crypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Query Str</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Type</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Setup Script</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Crypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Extract Request Data</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Regex Params List</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Retrieve Value</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Sql Params Dict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Teardown Script</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Error Log</t>
-        </is>
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:26">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="X2" s="0" t="inlineStr"/>
-      <c r="Y2" s="0" t="inlineStr"/>
-      <c r="Z2" s="12" t="inlineStr"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>非BIP用户登录</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="n">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/auth/loginByNotBip</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="0" t="inlineStr">
-        <is>
-          <t>{"code":"AG_500","type":null,"data":null,"msg":"服务器内部错误.","showType":2,"formMsg":null,"succeed":false}</t>
-        </is>
-      </c>
-      <c r="Y3" s="0" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z3" s="12" t="inlineStr"/>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" ht="26" customHeight="1" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="26" customHeight="1" spans="1:26">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="n"/>
-      <c r="U4" s="10" t="n"/>
-      <c r="V4" s="10" t="n"/>
-      <c r="W4" s="10" t="n"/>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="10" t="inlineStr"/>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" ht="115.5" customHeight="1" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="115.5" customHeight="1" spans="1:26">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>{"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
-        </is>
-      </c>
-      <c r="X5" s="0" t="inlineStr">
-        <is>
-          <t>{"code":"AG_100003","msg":"您的登陆状态已过期，请重新登陆。","showType":2,"succeed":false}</t>
-        </is>
-      </c>
-      <c r="Y5" s="0" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z5" s="0" t="inlineStr">
-        <is>
-          <t>('FAIL', [{'检查项': 'code', '期望值': 200, '实际值': 'AG_100003', '断言方法': 'eq:实际值与期望值相等'}, {'检查项': 'msg', '期望值': '添加成功', '实际值': '您的登陆状态已过期，请重新登陆。', '断言方法': 'eq:实际值与期望值相等'}])</t>
-        </is>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" ht="82.5" customHeight="1" spans="1:26">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>{"check":"data[0].tvSequence","comparator":"contained_by","expect":"{{tvSequence}}"}</t>
-        </is>
-      </c>
-      <c r="X6" s="0" t="inlineStr">
-        <is>
-          <t>{"code":"AG_100003","msg":"您的登陆状态已过期，请重新登陆。","showType":2,"succeed":false}</t>
-        </is>
-      </c>
-      <c r="Y6" s="0" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z6" s="0" t="inlineStr">
-        <is>
-          <t>('FAIL', [{'检查项': 'data[0].tvSequence', '期望值': '{{tvSequence}}', '实际值': [], '断言方法': 'contained_by:实际值被包含在期望值中'}])</t>
-        </is>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:H1">
-    <cfRule type="containsBlanks" priority="23" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="23">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="24" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="24">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="26" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1">
-    <cfRule type="containsBlanks" priority="18" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="18">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="containsBlanks" priority="14" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(L1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="10" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="10">
       <formula>LEN(TRIM(M1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="6" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
       <formula>LEN(TRIM(N1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Z1">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(P1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" priority="28" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="cellIs" priority="38" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A7:Z1048576">
-    <cfRule type="containsBlanks" priority="34" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="34">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="35" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="35">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="36" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="36">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="37" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:Z6 A2:D6">
-    <cfRule type="containsBlanks" priority="39" dxfId="26">
+  <conditionalFormatting sqref="A2:D6 F2:Z6">
+    <cfRule type="containsBlanks" dxfId="26" priority="39">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="40" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="41">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="42" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D7:D1048576">
-    <cfRule type="cellIs" priority="33" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="D2 D3 D4 D5 D6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
       <formula1>"YES,NO"</formula1>
-    </dataValidation>
-    <dataValidation sqref="E1 I1 J1 K1 N1" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>initialize_data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/bsp/test/user/ugs</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql_base",
- "user":"root",
- "password":"root1234"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["安全纯净大屏"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{account}}":"18127813600",
-"{{passwd}}":"c0mhUtfGbpqZECd8GU4sMJpmhlF633iO82/GSqRtgCwTksVtLLseQeYWjVXF1Z3DLsIBOAwEoO+/RAhHOY2zf/KcjfXV65kT/Rm6a+LpAoKvUHkfyeKrbQacBCW3EER+j9LZoecM9RfwM4WblJ3TxmLnErF9tyL9qgQ905xTS5E=",
-"{{projectId}}":"104966",
-"{{tenant}}":"216317749963825419"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2872,16 +2989,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3464e1a-96a9-46cc-8098-18eadbd88a91}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2890,16 +3012,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4ee8e1ab-4297-4eab-bf99-aa73e9c367ff}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2908,16 +3035,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7fbe953a-92a4-486c-b5f1-3b53cbb7907e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2926,19 +3058,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0d4e546b-86cb-4a1d-80b0-0444326176f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -2947,16 +3084,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0adb90d3-bba4-42e6-a851-6b690c604223}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -2965,16 +3107,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c29a640c-cb46-4540-b25c-be09ef863c4d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -2983,13 +3130,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3a61b115-0b73-42f1-a2d6-5b03fe2b5045}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -2998,11 +3150,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e4a01691-30e1-4b64-9003-9bdc0ed5b385}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3013,10 +3170,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{721c98b4-afd6-4fc5-88fb-eba8a79630d8}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3025,16 +3187,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8aef5614-0d85-4207-8c71-90ffd9074c78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3043,245 +3210,275 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7ca793dd-c4e3-4f9e-b2d6-cac6e6940ace}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xxxx.com" tooltip="https://xxxx.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e3464e1a-96a9-46cc-8098-18eadbd88a91}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4ee8e1ab-4297-4eab-bf99-aa73e9c367ff}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7fbe953a-92a4-486c-b5f1-3b53cbb7907e}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0d4e546b-86cb-4a1d-80b0-0444326176f8}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0adb90d3-bba4-42e6-a851-6b690c604223}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c29a640c-cb46-4540-b25c-be09ef863c4d}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3a61b115-0b73-42f1-a2d6-5b03fe2b5045}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e4a01691-30e1-4b64-9003-9bdc0ed5b385}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{721c98b4-afd6-4fc5-88fb-eba8a79630d8}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8aef5614-0d85-4207-8c71-90ffd9074c78}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7ca793dd-c4e3-4f9e-b2d6-cac6e6940ace}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" ht="181.5" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果是提取出来的参数，那么使用 {{}} 包裹变量即可</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-        </is>
+    <row r="4" ht="181.5" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">如果是使用内置函数或者自定义函数，则使用：{{函数名()}} </t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数中的 hello 的值可以这么写:
-在提取参数这栏填写：{"hel":"$.hello"}
-那么使用的时候就这样填写：{{hel}}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="165" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath：{"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储标量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="165" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_api.xlsx
+++ b/cases/cases/test_api.xlsx
@@ -1,568 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14628"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26148" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="safe" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet name="safe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Error Log</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>非BIP用户登录</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-  </si>
-  <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t>{"code":"0","type":"success","data":{"id":"216892516055272770","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"86fc96bed28d2d22c574a13388a40797","type":"user","avatar":null,"ncAccount":null,"timestamp":1689251605,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>安全大屏</t>
-  </si>
-  <si>
-    <t>大盘-隐患类型数据</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>劳务基础配置</t>
-  </si>
-  <si>
-    <t>绑定TV</t>
-  </si>
-  <si>
-    <t>/api/addTvSequence?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def setup(pm):
- print("pm----------------&gt;", pm.get_variables())
- # request_data = pm.get_variables()  # 获取得到请求数据
- """
- request_data 的值:  {'Url': '/login',
-  'Headers': '{"Content-Type": "application/json"}',
-   'Query Str': None,
-    'Request Data Type': 'params',
-    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-    }
- """
- BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
- pm.update_environments("BSP_TOKEN_NEWS", BSP_TOKEN + "修改了环境变量")  # 设置环境变量
- print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
- print("----&gt;pm.get_variables", pm.get_variables())
-setup(pm)
-</t>
-  </si>
-  <si>
-    <t>{"tvSequence": "$..tvSequence"}</t>
-  </si>
-  <si>
-    <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
-  </si>
-  <si>
-    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-  </si>
-  <si>
-    <t>('PASS', [])</t>
-  </si>
-  <si>
-    <t>查询配置</t>
-  </si>
-  <si>
-    <t>/api/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{"check":"data.projectId","comparator":"contained_by","expect":"{{projectId}}"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://xxxx.com</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql_base",
- "user":"root",
- "password":"root1234"
-}</t>
-  </si>
-  <si>
-    <t>["safe"]</t>
-  </si>
-  <si>
-    <t>{
-"{{account}}":"18120",
-"{{passwd}}":"B+irs=",
-"{{projectId}}":"3333",
-"{{tenant}}":"54444"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果是提取出来的参数，那么使用 {{}} 包裹变量即可</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果是使用内置函数或者自定义函数，则使用：{{函数名()}} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数中的 hello 的值可以这么写:
-在提取参数这栏填写：{"hel":"$.hello"}
-那么使用的时候就这样填写：{{hel}}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath：{"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储标量：["co","na"]</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -907,200 +539,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,15 +939,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1335,8 +966,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1356,8 +987,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1387,8 +1018,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1418,19 +1049,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1454,8 +1085,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1478,7 +1109,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1506,7 +1137,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1532,7 +1163,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1558,7 +1189,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1581,8 +1212,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1725,8 +1356,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1756,8 +1387,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1787,8 +1418,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1888,7 +1519,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1900,8 +1531,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1931,8 +1562,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1962,11 +1593,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -2111,16 +1742,79 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z6" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2418,472 +2112,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.21969696969697" style="3" customWidth="1"/>
-    <col min="5" max="6" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.780303030303" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
-    <col min="9" max="26" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+    <col width="3.21969696969697" customWidth="1" style="3" min="1" max="1"/>
+    <col width="7.88636363636364" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.780303030303" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.21969696969697" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7.88636363636364" customWidth="1" style="3" min="5" max="6"/>
+    <col width="14.780303030303" customWidth="1" style="10" min="7" max="7"/>
+    <col width="29.8863636363636" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.780303030303" customWidth="1" style="3" min="9" max="26"/>
+    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Headers Crypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Query Str</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Type</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Setup Script</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Crypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Extract Request Data</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Regex Params List</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Retrieve Value</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Sql Params Dict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Teardown Script</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Error Log</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="X2" s="0" t="inlineStr"/>
+      <c r="Y2" s="0" t="inlineStr"/>
+      <c r="Z2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>非BIP用户登录</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/login</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y3" s="0" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z3" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>安全大屏</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>大盘-隐患类型数据</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="n"/>
+      <c r="U4" s="10" t="n"/>
+      <c r="V4" s="10" t="n"/>
+      <c r="W4" s="10" t="n"/>
+      <c r="X4" s="10" t="inlineStr"/>
+      <c r="Y4" s="10" t="inlineStr"/>
+      <c r="Z4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="115.5" customHeight="1" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>绑定TV</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/api/addTvSequence?t={{get_timestamp()}}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(pm):
+ print("pm----------------&gt;", pm.get_variables())
+ # request_data = pm.get_variables()  # 获取得到请求数据
+ """
+ request_data 的值:  {'Url': '/login',
+  'Headers': '{"Content-Type": "application/json"}',
+   'Query Str': None,
+    'Request Data Type': 'params',
+    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+    }
+ """
+ BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
+ pm.update_environments("BSP_TOKEN_NEWS", BSP_TOKEN + "修改了环境变量")  # 设置环境变量
+ print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+ print("----&gt;pm.get_variables", pm.get_variables())
+setup(pm)
+</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>{"tvSequence": "$..tvSequence"}</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>[{"check":"code","comparator":"eq","expect":200},{"check":"msg","comparator":"eq","expect":"添加成功"}]</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:26">
-      <c r="A2" s="3">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>查询配置</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="26" customHeight="1" spans="1:26">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:26">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:26">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>53</v>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/api/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>{"check":"data.projectId","comparator":"contained_by","expect":"{{projectId}}"}</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y6" s="0" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z6" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:H1">
-    <cfRule type="containsBlanks" dxfId="26" priority="23">
+    <cfRule type="containsBlanks" priority="23" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" priority="24" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" priority="25" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1">
-    <cfRule type="containsBlanks" dxfId="26" priority="18">
+    <cfRule type="containsBlanks" priority="18" dxfId="26">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" priority="19" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" priority="20" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
+    <cfRule type="containsBlanks" priority="14" dxfId="26">
       <formula>LEN(TRIM(L1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" priority="15" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" priority="16" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" priority="12" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" priority="11" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="10">
+    <cfRule type="containsBlanks" priority="10" dxfId="26">
       <formula>LEN(TRIM(M1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" priority="8" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" priority="6" dxfId="26">
       <formula>LEN(TRIM(N1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Z1">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(P1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+    <cfRule type="cellIs" priority="38" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 A7:Z1048576">
-    <cfRule type="containsBlanks" dxfId="26" priority="34">
+    <cfRule type="containsBlanks" priority="34" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="35">
+    <cfRule type="expression" priority="35" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36">
+    <cfRule type="expression" priority="36" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+    <cfRule type="cellIs" priority="37" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D6 F2:Z6">
-    <cfRule type="containsBlanks" dxfId="26" priority="39">
+    <cfRule type="containsBlanks" priority="39" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="40">
+    <cfRule type="expression" priority="40" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" priority="41" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" priority="42" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D7:D1048576">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" priority="33" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6">
+    <dataValidation sqref="E1 I1 J1 K1 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
+    <dataValidation sqref="D2 D3 D4 D5 D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2891,96 +2734,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
+    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>initialize_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://xxxx.com</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/test</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql_base",
+ "user":"root",
+ "password":"root1234"
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["safe"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{account}}":"18120",
+"{{passwd}}":"B+irs=",
+"{{projectId}}":"3333",
+"{{tenant}}":"54444"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2989,21 +2878,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3464e1a-96a9-46cc-8098-18eadbd88a91}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3012,21 +2896,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ee8e1ab-4297-4eab-bf99-aa73e9c367ff}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3035,21 +2914,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fbe953a-92a4-486c-b5f1-3b53cbb7907e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3058,24 +2932,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d4e546b-86cb-4a1d-80b0-0444326176f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3084,21 +2953,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0adb90d3-bba4-42e6-a851-6b690c604223}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3107,21 +2971,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c29a640c-cb46-4540-b25c-be09ef863c4d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3130,18 +2989,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a61b115-0b73-42f1-a2d6-5b03fe2b5045}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3150,16 +3004,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4a01691-30e1-4b64-9003-9bdc0ed5b385}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3170,15 +3019,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{721c98b4-afd6-4fc5-88fb-eba8a79630d8}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3187,21 +3031,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8aef5614-0d85-4207-8c71-90ffd9074c78}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3210,275 +3049,245 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7ca793dd-c4e3-4f9e-b2d6-cac6e6940ace}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xxxx.com" tooltip="https://xxxx.com"/>
+    <hyperlink ref="C2" tooltip="https://xxxx.com" display="https://xxxx.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3464e1a-96a9-46cc-8098-18eadbd88a91}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ee8e1ab-4297-4eab-bf99-aa73e9c367ff}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7fbe953a-92a4-486c-b5f1-3b53cbb7907e}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0d4e546b-86cb-4a1d-80b0-0444326176f8}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0adb90d3-bba4-42e6-a851-6b690c604223}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c29a640c-cb46-4540-b25c-be09ef863c4d}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3a61b115-0b73-42f1-a2d6-5b03fe2b5045}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e4a01691-30e1-4b64-9003-9bdc0ed5b385}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{721c98b4-afd6-4fc5-88fb-eba8a79630d8}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8aef5614-0d85-4207-8c71-90ffd9074c78}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ca793dd-c4e3-4f9e-b2d6-cac6e6940ace}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="181.5" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
+    <row r="4" ht="181.5" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果是提取出来的参数，那么使用 {{}} 包裹变量即可</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">如果是使用内置函数或者自定义函数，则使用：{{函数名()}} </t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数中的 hello 的值可以这么写:
+在提取参数这栏填写：{"hel":"$.hello"}
+那么使用的时候就这样填写：{{hel}}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
     </row>
-    <row r="7" ht="165" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="165" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath：{"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储标量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_api.xlsx
+++ b/cases/cases/test_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26148" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="safe" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="safe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -2112,28 +2112,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
   <cols>
-    <col width="3.21969696969697" customWidth="1" style="3" min="1" max="1"/>
-    <col width="7.88636363636364" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.780303030303" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.21969696969697" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.88636363636364" customWidth="1" style="3" min="5" max="6"/>
-    <col width="14.780303030303" customWidth="1" style="10" min="7" max="7"/>
-    <col width="29.8863636363636" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.780303030303" customWidth="1" style="3" min="9" max="26"/>
-    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
+    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
+    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7.88888888888889" customWidth="1" style="3" min="5" max="6"/>
+    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
+    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="9" max="26"/>
+    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}","test":"{{tvSequence}}"}</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
@@ -2718,23 +2718,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation sqref="D2 D3 D4 D5 D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
     <dataValidation sqref="E1 I1 J1 K1 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
     <dataValidation sqref="F2 F3 F4 F5 F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2 D3 D4 D5 D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2745,17 +2745,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
+    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
     <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
+    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
@@ -3058,7 +3058,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://xxxx.com" display="https://xxxx.com" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://xxxx.com" display="https://xxxx.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
@@ -3077,14 +3077,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
+    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="1">

--- a/cases/cases/test_api.xlsx
+++ b/cases/cases/test_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26148" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="safe" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="safe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -2112,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2120,20 +2120,20 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="0"/>
   <cols>
-    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="4"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="5" max="6"/>
-    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
-    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="9" max="26"/>
-    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
+    <col width="3.21969696969697" customWidth="1" style="3" min="1" max="1"/>
+    <col width="7.88636363636364" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.780303030303" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.21969696969697" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7.88636363636364" customWidth="1" style="3" min="5" max="6"/>
+    <col width="14.780303030303" customWidth="1" style="10" min="7" max="7"/>
+    <col width="29.8863636363636" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.780303030303" customWidth="1" style="3" min="9" max="26"/>
+    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
@@ -2348,7 +2348,11 @@
       </c>
       <c r="M3" s="3" t="n"/>
       <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>{"tvSequence": "$..account"}</t>
+        </is>
+      </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
           <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
@@ -2455,7 +2459,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+          <t>{"tvSequence":"{{tvSequence}}","Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}","account":"{{account}}"}</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -2718,23 +2722,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation sqref="E1 I1 J1 K1 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
     <dataValidation sqref="D2 D3 D4 D5 D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation sqref="E1 I1 J1 K1 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
     <dataValidation sqref="F2 F3 F4 F5 F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2742,20 +2746,20 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
+    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
     <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
+    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
@@ -3058,7 +3062,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://xxxx.com" display="https://xxxx.com" r:id="rId1"/>
+    <hyperlink ref="C2" tooltip="https://xxxx.com" display="https://xxxx.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
@@ -3077,14 +3081,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
+    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" s="1">
